--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,156 +476,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35269</v>
+        <v>71733</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heloísa Souza</t>
+          <t>Sr. Juan Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>11305.94</v>
+        <v>3140.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38608</v>
+        <v>52073</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Maria Alice Jesus</t>
+          <t>Anthony Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>2887.77</v>
+        <v>8708.040000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96438</v>
+        <v>32192</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Nogueira</t>
+          <t>Dr. João Felipe Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>4413.23</v>
+        <v>9838.629999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41191</v>
+        <v>28432</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Souza</t>
+          <t>Daniela Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>9697.85</v>
+        <v>5122.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12550</v>
+        <v>5490</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Lucca Lima</t>
+          <t>Bárbara Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>9416.299999999999</v>
+        <v>10038.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50855</v>
+        <v>83221</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Silveira</t>
+          <t>Marina Pires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>9312.110000000001</v>
+        <v>8328.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82763</v>
+        <v>33860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isadora Peixoto</t>
+          <t>Cauê Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>2674.46</v>
+        <v>12377.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57431</v>
+        <v>83727</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sophie da Rocha</t>
+          <t>Fernanda Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>5276.12</v>
+        <v>9232.790000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>406</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vinicius Ramos</t>
+          <t>Joana Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>5774.7</v>
+        <v>7965.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75283</v>
+        <v>7391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Miguel Costa</t>
+          <t>Sr. Henrique Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>12071.99</v>
+        <v>4126.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_2.xlsx
+++ b/data/input/absenteeism_data_2.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71733</v>
+        <v>18838</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Juan Cavalcanti</t>
+          <t>Dr. Raul Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3140.42</v>
+        <v>4101.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>52073</v>
+        <v>79894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthony Azevedo</t>
+          <t>Maria Fernanda Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,118 +519,118 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>8708.040000000001</v>
+        <v>6267.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32192</v>
+        <v>76675</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. João Felipe Ramos</t>
+          <t>Sarah Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>9838.629999999999</v>
+        <v>6974.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28432</v>
+        <v>14326</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniela Araújo</t>
+          <t>Milena Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>5122.93</v>
+        <v>4554.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5490</v>
+        <v>34905</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Mendes</t>
+          <t>Sra. Marcela Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>10038.87</v>
+        <v>10765.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83221</v>
+        <v>78263</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marina Pires</t>
+          <t>Dr. Eduardo da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>8328.68</v>
+        <v>9440.799999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33860</v>
+        <v>72766</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cauê Costa</t>
+          <t>Luiz Fernando Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>12377.41</v>
+        <v>10547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>83727</v>
+        <v>12890</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fernanda Peixoto</t>
+          <t>Miguel Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9232.790000000001</v>
+        <v>7506.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46049</v>
+        <v>52016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Joana Fernandes</t>
+          <t>Cecília Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>7965.7</v>
+        <v>12162.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7391</v>
+        <v>50827</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Henrique Nogueira</t>
+          <t>Davi Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>4126.6</v>
+        <v>6061.09</v>
       </c>
     </row>
   </sheetData>
